--- a/biology/Microbiologie/Xylophilus_ampelinus/Xylophilus_ampelinus.xlsx
+++ b/biology/Microbiologie/Xylophilus_ampelinus/Xylophilus_ampelinus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Xylophilus est un genre de protéobactéries de la famille des Comamonadaceae[3].
-L'espèce-type et unique espèce de ce genre est Xylophilius ampelinus[4].
-Le nom générique, « Xylophilus », est dérivé de deux racines grecques et signifie « qui aime le bois »[4]
-Xylophilus ampelinus est l'agent pathogène qui provoque la nécrose bactérienne de la vigne[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Xylophilus est un genre de protéobactéries de la famille des Comamonadaceae.
+L'espèce-type et unique espèce de ce genre est Xylophilius ampelinus.
+Le nom générique, « Xylophilus », est dérivé de deux racines grecques et signifie « qui aime le bois »
+Xylophilus ampelinus est l'agent pathogène qui provoque la nécrose bactérienne de la vigne.
 </t>
         </is>
       </c>
@@ -514,9 +526,11 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                  (11 août 2014)[6] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                  (11 août 2014) :
 Xanthomonas ampelina Panagopoulos 1969.</t>
         </is>
       </c>
